--- a/Evaluation_Rubric.xlsx
+++ b/Evaluation_Rubric.xlsx
@@ -1,20 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashoang/Documents/GitHub/GETPHITAutomations/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2BA590-7B22-0042-89AC-70483294DCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="3920" yWindow="500" windowWidth="34480" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Summary Sheet" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Evaluator 1" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Evaluator 2" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Evaluator 3" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Evaluator 4" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Evaluator 5" sheetId="6" r:id="rId9"/>
+    <sheet name="Summary Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Evaluator 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Evaluator 2" sheetId="3" r:id="rId3"/>
+    <sheet name="Evaluator 3" sheetId="4" r:id="rId4"/>
+    <sheet name="Evaluator 4" sheetId="5" r:id="rId5"/>
+    <sheet name="Evaluator 5" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="gpa">'Evaluator 1'!$A$17:$A$23</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataSignature="AMtx7mh7RgZHXpYPPqtrIzFfEwSw3+KlYA=="/>
     </ext>
@@ -77,19 +98,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">The essay is well-written and they indicate a strong interest in public health and/or informatics   
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 15 
 Minimum points: 13</t>
@@ -98,19 +119,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">The essay is understandable and they indicate an overall interest in healthcare 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 12 
 Minimum points: 10</t>
@@ -119,19 +140,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">The essay lacked some clarity and the reason for attending was not related to an interest in healthcare 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 9 
 Minimum points: 7</t>
@@ -140,19 +161,21 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">The essay is poorly written and the reason for attending is related to improving the CV or other similar 
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <family val="1"/>
       </rPr>
       <t>Maximum points: 6 
 Minimum points: 4</t>
@@ -161,19 +184,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">The essay was difficult to understand. 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 3 
 Minimum points: 0</t>
@@ -189,19 +212,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Their major and reason are highly aligned and show potential for benefit to public health informatics 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 10 
 Minimum points: 9</t>
@@ -210,19 +233,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Their major and reason are somewhat aligned and could benefit public health informatics 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 8 
 Minimum points: 7</t>
@@ -231,19 +254,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Their major and reason could be aligned and benefits to public health informatics could accrue; 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 6 
 Minimum points: 5</t>
@@ -252,19 +275,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Their major and reason are not aligned and any benefits are doubtful. 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 4 
 Minimum points: 0</t>
@@ -278,19 +301,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Rising senior / Graduating 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 10</t>
     </r>
@@ -298,19 +321,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Rising Junior 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 9 
 Minimum points: 8</t>
@@ -319,19 +342,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Rising Sophomore 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 7</t>
     </r>
@@ -339,19 +362,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Rising Freshman 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 6</t>
     </r>
@@ -363,19 +386,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Hosting 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 10</t>
     </r>
@@ -383,18 +406,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Our consortium </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 9 Minimum points: 8</t>
     </r>
@@ -402,19 +425,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Minority in serving 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 7</t>
     </r>
@@ -422,19 +445,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Minority not in serving or constrium 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 5</t>
     </r>
@@ -442,19 +465,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">4-3.8 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 10</t>
     </r>
@@ -462,19 +485,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">3.7-3.5 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 9</t>
     </r>
@@ -482,19 +505,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">3.4-3.2 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 8</t>
     </r>
@@ -502,19 +525,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">3.1-3.0 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 7</t>
     </r>
@@ -522,19 +545,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">2.9-2.8 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 6</t>
     </r>
@@ -542,19 +565,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">2.7-2.5 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available:5</t>
     </r>
@@ -562,19 +585,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">&lt;2.5 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available:0</t>
     </r>
@@ -586,19 +609,21 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">Hispanic or Latino 
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <family val="1"/>
       </rPr>
       <t>Points available: 2</t>
     </r>
@@ -606,18 +631,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">First in family to attend and or graduate college </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 2</t>
     </r>
@@ -625,19 +650,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">First in family with healthcare focus or profession 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 2</t>
     </r>
@@ -645,19 +670,21 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">Participation in head start or school lunch program 
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <family val="1"/>
       </rPr>
       <t>Points available: 2</t>
     </r>
@@ -665,19 +692,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">English as native language 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 2</t>
     </r>
@@ -685,19 +712,21 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">Race other than white
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <family val="1"/>
       </rPr>
       <t>Points available:2</t>
     </r>
@@ -705,19 +734,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">The essay is well-written and they indicate a strong interest in public health and/or informatics   
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 15 
 Minimum points: 13</t>
@@ -726,19 +755,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">The essay is understandable and they indicate an overall interest in healthcare 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 12 
 Minimum points: 10</t>
@@ -747,19 +776,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">The essay lacked some clarity and the reason for attending was not related to an interest in healthcare 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 9 
 Minimum points: 7</t>
@@ -768,19 +797,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">The essay is poorly written and the reason for attending is related to improving the CV or other similar 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 6 
 Minimum points: 4</t>
@@ -789,19 +818,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">The essay was difficult to understand. 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 3 
 Minimum points: 0</t>
@@ -810,19 +839,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Their major and reason are highly aligned and show potential for benefit to public health informatics 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 10 
 Minimum points: 9</t>
@@ -831,19 +860,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Their major and reason are somewhat aligned and could benefit public health informatics 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 8 
 Minimum points: 7</t>
@@ -852,19 +881,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Their major and reason could be aligned and benefits to public health informatics could accrue; 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 6 
 Minimum points: 5</t>
@@ -873,19 +902,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Their major and reason are not aligned and any benefits are doubtful. 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 4 
 Minimum points: 0</t>
@@ -894,19 +923,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Rising senior / Graduating 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 10</t>
     </r>
@@ -914,19 +943,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Rising Junior 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 9 
 Minimum points: 8</t>
@@ -935,19 +964,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Rising Sophomore 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 7</t>
     </r>
@@ -955,19 +984,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Rising Freshman 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 6</t>
     </r>
@@ -975,19 +1004,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Hosting 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 10</t>
     </r>
@@ -995,18 +1024,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Our consortium </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 9 Minimum points: 8</t>
     </r>
@@ -1014,19 +1043,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Minority in serving 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 7</t>
     </r>
@@ -1034,19 +1063,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Minority not in serving or constrium 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 5</t>
     </r>
@@ -1054,19 +1083,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">4-3.8 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 10</t>
     </r>
@@ -1074,19 +1103,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">3.7-3.5 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 9</t>
     </r>
@@ -1094,19 +1123,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">3.4-3.2 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 8</t>
     </r>
@@ -1114,19 +1143,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">3.1-3.0 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 7</t>
     </r>
@@ -1134,19 +1163,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">2.9-2.8 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 6</t>
     </r>
@@ -1154,19 +1183,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">2.7-2.5 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available:5</t>
     </r>
@@ -1174,19 +1203,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">&lt;2.5 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available:0</t>
     </r>
@@ -1194,18 +1223,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Hispanic or Latino </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 2</t>
     </r>
@@ -1213,18 +1242,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">First in family to attend and or graduate college </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 2</t>
     </r>
@@ -1232,19 +1261,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">First in family with healthcare focus or profession 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 2</t>
     </r>
@@ -1252,19 +1281,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Participation in head start or school lunc program 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 2</t>
     </r>
@@ -1272,19 +1301,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">English as native language 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 2</t>
     </r>
@@ -1292,19 +1321,21 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">Race other than white
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <family val="1"/>
       </rPr>
       <t>Points available:2</t>
     </r>
@@ -1336,19 +1367,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">The essay is well-written and they indicate a strong interest in public health and/or informatics   
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 15 
 Minimum points: 13</t>
@@ -1357,19 +1388,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">The essay is understandable and they indicate an overall interest in healthcare 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 12 
 Minimum points: 10</t>
@@ -1378,19 +1409,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">The essay lacked some clarity and the reason for attending was not related to an interest in healthcare 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 9 
 Minimum points: 7</t>
@@ -1399,19 +1430,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">The essay is poorly written and the reason for attending is related to improving the CV or other similar 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 6 
 Minimum points: 4</t>
@@ -1420,19 +1451,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">The essay was difficult to understand. 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 3 
 Minimum points: 0</t>
@@ -1441,19 +1472,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Their major and reason are highly aligned and show potential for benefit to public health informatics 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 10 
 Minimum points: 9</t>
@@ -1462,19 +1493,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Their major and reason are somewhat aligned and could benefit public health informatics 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 8 
 Minimum points: 7</t>
@@ -1483,19 +1514,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Their major and reason could be aligned and benefits to public health informatics could accrue; 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 6 
 Minimum points: 5</t>
@@ -1504,19 +1535,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Their major and reason are not aligned and any benefits are doubtful. 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 4 
 Minimum points: 0</t>
@@ -1525,19 +1556,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Rising senior / Graduating 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 10</t>
     </r>
@@ -1545,19 +1576,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Rising Junior 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 9 
 Minimum points: 8</t>
@@ -1566,19 +1597,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Rising Sophomore 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 7</t>
     </r>
@@ -1586,19 +1617,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Rising Freshman 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 6</t>
     </r>
@@ -1606,19 +1637,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Hosting 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 10</t>
     </r>
@@ -1626,18 +1657,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Our consortium </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 9 Minimum points: 8</t>
     </r>
@@ -1645,19 +1676,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Minority in serving 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 7</t>
     </r>
@@ -1665,19 +1696,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Minority not in serving or constrium 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 5</t>
     </r>
@@ -1685,19 +1716,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">4-3.8 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 10</t>
     </r>
@@ -1705,19 +1736,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">3.7-3.5 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 9</t>
     </r>
@@ -1725,19 +1756,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">3.4-3.2 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 8</t>
     </r>
@@ -1745,19 +1776,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">3.1-3.0 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 7</t>
     </r>
@@ -1765,19 +1796,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">2.9-2.8 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 6</t>
     </r>
@@ -1785,19 +1816,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">2.7-2.5 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available:5</t>
     </r>
@@ -1805,19 +1836,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">&lt;2.5 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available:0</t>
     </r>
@@ -1825,18 +1856,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Hispanic or Latino </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 2</t>
     </r>
@@ -1844,18 +1875,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">First in family to attend and or graduate college </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 2</t>
     </r>
@@ -1863,19 +1894,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">First in family with healthcare focus or profession 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 2</t>
     </r>
@@ -1883,19 +1914,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Participation in head start or school lunc program 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 2</t>
     </r>
@@ -1903,19 +1934,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">English as native language 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 2</t>
     </r>
@@ -1923,19 +1954,21 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">Race other than white
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <family val="1"/>
       </rPr>
       <t>Points available:2</t>
     </r>
@@ -1943,19 +1976,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">The essay is well-written and they indicate a strong interest in public health and/or informatics   
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 15 
 Minimum points: 13</t>
@@ -1964,19 +1997,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">The essay is understandable and they indicate an overall interest in healthcare 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 12 
 Minimum points: 10</t>
@@ -1985,19 +2018,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">The essay lacked some clarity and the reason for attending was not related to an interest in healthcare 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 9 
 Minimum points: 7</t>
@@ -2006,19 +2039,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">The essay is poorly written and the reason for attending is related to improving the CV or other similar 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 6 
 Minimum points: 4</t>
@@ -2027,19 +2060,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">The essay was difficult to understand. 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 3 
 Minimum points: 0</t>
@@ -2048,19 +2081,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Their major and reason are highly aligned and show potential for benefit to public health informatics 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 10 
 Minimum points: 9</t>
@@ -2069,19 +2102,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Their major and reason are somewhat aligned and could benefit public health informatics 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 8 
 Minimum points: 7</t>
@@ -2090,19 +2123,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Their major and reason could be aligned and benefits to public health informatics could accrue; 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 6 
 Minimum points: 5</t>
@@ -2111,19 +2144,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Their major and reason are not aligned and any benefits are doubtful. 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 4 
 Minimum points: 0</t>
@@ -2132,19 +2165,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Rising senior / Graduating 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 10</t>
     </r>
@@ -2152,19 +2185,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Rising Junior 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 9 
 Minimum points: 8</t>
@@ -2173,19 +2206,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Rising Sophomore 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 7</t>
     </r>
@@ -2193,19 +2226,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Rising Freshman 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 6</t>
     </r>
@@ -2213,19 +2246,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Hosting 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 10</t>
     </r>
@@ -2233,18 +2266,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Our consortium </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 9 Minimum points: 8</t>
     </r>
@@ -2252,19 +2285,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Minority in serving 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 7</t>
     </r>
@@ -2272,19 +2305,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Minority not in serving or constrium 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 5</t>
     </r>
@@ -2292,19 +2325,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">4-3.8 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 10</t>
     </r>
@@ -2312,19 +2345,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">3.7-3.5 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 9</t>
     </r>
@@ -2332,19 +2365,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">3.4-3.2 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 8</t>
     </r>
@@ -2352,19 +2385,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">3.1-3.0 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 7</t>
     </r>
@@ -2372,19 +2405,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">2.9-2.8 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 6</t>
     </r>
@@ -2392,19 +2425,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">2.7-2.5 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available:5</t>
     </r>
@@ -2412,19 +2445,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">&lt;2.5 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available:0</t>
     </r>
@@ -2432,18 +2465,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Hispanic or Latino </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 2</t>
     </r>
@@ -2451,18 +2484,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">First in family to attend and or graduate college </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 2</t>
     </r>
@@ -2470,19 +2503,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">First in family with healthcare focus or profession 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 2</t>
     </r>
@@ -2490,19 +2523,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Participation in head start or school lunc program 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 2</t>
     </r>
@@ -2510,19 +2543,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">English as native language 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 2</t>
     </r>
@@ -2530,19 +2563,21 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">Race other than white
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <family val="1"/>
       </rPr>
       <t>Points available:2</t>
     </r>
@@ -2550,19 +2585,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">The essay is well-written and they indicate a strong interest in public health and/or informatics   
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 15 
 Minimum points: 13</t>
@@ -2571,19 +2606,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">The essay is understandable and they indicate an overall interest in healthcare 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 12 
 Minimum points: 10</t>
@@ -2592,19 +2627,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">The essay lacked some clarity and the reason for attending was not related to an interest in healthcare 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 9 
 Minimum points: 7</t>
@@ -2613,19 +2648,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">The essay is poorly written and the reason for attending is related to improving the CV or other similar 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 6 
 Minimum points: 4</t>
@@ -2634,19 +2669,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">The essay was difficult to understand. 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 3 
 Minimum points: 0</t>
@@ -2655,19 +2690,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Their major and reason are highly aligned and show potential for benefit to public health informatics 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 10 
 Minimum points: 9</t>
@@ -2676,19 +2711,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Their major and reason are somewhat aligned and could benefit public health informatics 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 8 
 Minimum points: 7</t>
@@ -2697,19 +2732,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Their major and reason could be aligned and benefits to public health informatics could accrue; 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 6 
 Minimum points: 5</t>
@@ -2718,19 +2753,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Their major and reason are not aligned and any benefits are doubtful. 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 4 
 Minimum points: 0</t>
@@ -2739,19 +2774,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Rising senior / Graduating 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 10</t>
     </r>
@@ -2759,19 +2794,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Rising Junior 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 9 
 Minimum points: 8</t>
@@ -2780,19 +2815,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Rising Sophomore 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 7</t>
     </r>
@@ -2800,19 +2835,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Rising Freshman 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 6</t>
     </r>
@@ -2820,19 +2855,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Hosting 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 10</t>
     </r>
@@ -2840,18 +2875,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Our consortium </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Maximum points: 9 Minimum points: 8</t>
     </r>
@@ -2859,19 +2894,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Minority in serving 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 7</t>
     </r>
@@ -2879,19 +2914,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Minority not in serving or constrium 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 5</t>
     </r>
@@ -2899,19 +2934,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">4-3.8 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 10</t>
     </r>
@@ -2919,19 +2954,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">3.7-3.5 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 9</t>
     </r>
@@ -2939,19 +2974,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">3.4-3.2 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 8</t>
     </r>
@@ -2959,19 +2994,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">3.1-3.0 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 7</t>
     </r>
@@ -2979,19 +3014,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">2.9-2.8 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 6</t>
     </r>
@@ -2999,19 +3034,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">2.7-2.5 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available:5</t>
     </r>
@@ -3019,19 +3054,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">&lt;2.5 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available:0</t>
     </r>
@@ -3039,18 +3074,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Hispanic or Latino </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 2</t>
     </r>
@@ -3058,18 +3093,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">First in family to attend and or graduate college </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 2</t>
     </r>
@@ -3077,19 +3112,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">First in family with healthcare focus or profession 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 2</t>
     </r>
@@ -3097,19 +3132,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">Participation in head start or school lunc program 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 2</t>
     </r>
@@ -3117,19 +3152,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t xml:space="preserve">English as native language 
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Times New Roman&quot;, serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Times New Roman&quot;, serif"/>
       </rPr>
       <t>Points available: 2</t>
     </r>
@@ -3137,19 +3172,21 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">Race other than white
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <family val="1"/>
       </rPr>
       <t>Points available:2</t>
     </r>
@@ -3158,93 +3195,122 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
-    <font/>
     <font>
-      <sz val="12.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Times New Roman&quot;, serif"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Times New Roman&quot;, serif"/>
     </font>
   </fonts>
   <fills count="19">
@@ -3252,7 +3318,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -3358,93 +3424,64 @@
     </fill>
   </fills>
   <borders count="16">
-    <border/>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -3453,221 +3490,316 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="80">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="4" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="4" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="4" fillId="13" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="4" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="5" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="14" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="6" fillId="14" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="14" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="14" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="8" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="8" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="15" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="15" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="15" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="16" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="16" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="16" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="17" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="17" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="17" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="13" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="13" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="13" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="18" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="18" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="18" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="2" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -3857,296 +3989,300 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H998"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.5"/>
-    <col customWidth="1" min="5" max="5" width="15.13"/>
-    <col customWidth="1" min="7" max="7" width="15.38"/>
-    <col customWidth="1" min="8" max="8" width="17.0"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="53"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="str">
+      <c r="B3" s="55">
         <f>'Evaluator 1'!B3</f>
-        <v/>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="str">
+      <c r="B4" s="56">
         <f>'Evaluator 1'!B4</f>
-        <v/>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="10" t="str">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A6" s="4">
         <f>'Evaluator 1'!B5</f>
-        <v/>
-      </c>
-      <c r="B6" s="11" t="str">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5">
         <f>'Evaluator 1'!I7</f>
-        <v/>
-      </c>
-      <c r="C6" s="11" t="str">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
         <f>'Evaluator 1'!I8</f>
-        <v/>
-      </c>
-      <c r="D6" s="11" t="str">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
         <f>'Evaluator 1'!I9</f>
-        <v/>
-      </c>
-      <c r="E6" s="11" t="str">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
         <f>'Evaluator 1'!I10</f>
-        <v/>
-      </c>
-      <c r="F6" s="11" t="str">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
         <f>'Evaluator 1'!I11</f>
-        <v/>
-      </c>
-      <c r="G6" s="11" t="str">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
         <f>'Evaluator 1'!I12</f>
-        <v/>
-      </c>
-      <c r="H6" s="12">
-        <f t="shared" ref="H6:H10" si="1">SUM(B6:G6)</f>
         <v>0</v>
       </c>
+      <c r="H6" s="6">
+        <f t="shared" ref="H6:H10" si="0">SUM(B6:G6)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="13" t="str">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A7" s="7">
         <f>'Evaluator 2'!B5</f>
-        <v/>
-      </c>
-      <c r="B7" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="B7" s="8">
         <f>'Evaluator 2'!I7</f>
-        <v/>
-      </c>
-      <c r="C7" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
         <f>'Evaluator 2'!I8</f>
-        <v/>
-      </c>
-      <c r="D7" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8">
         <f>'Evaluator 2'!I9</f>
-        <v/>
-      </c>
-      <c r="E7" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
         <f>'Evaluator 2'!I10</f>
-        <v/>
-      </c>
-      <c r="F7" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
         <f>'Evaluator 2'!I11</f>
-        <v/>
-      </c>
-      <c r="G7" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
         <f>'Evaluator 2'!I12</f>
-        <v/>
-      </c>
-      <c r="H7" s="12">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="H7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="15" t="str">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A8" s="9">
         <f>'Evaluator 3'!B5</f>
-        <v/>
-      </c>
-      <c r="B8" s="16" t="str">
+        <v>0</v>
+      </c>
+      <c r="B8" s="10">
         <f>'Evaluator 3'!I7</f>
-        <v/>
-      </c>
-      <c r="C8" s="16" t="str">
+        <v>0</v>
+      </c>
+      <c r="C8" s="10">
         <f>'Evaluator 3'!I8</f>
-        <v/>
-      </c>
-      <c r="D8" s="16" t="str">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10">
         <f>'Evaluator 3'!I9</f>
-        <v/>
-      </c>
-      <c r="E8" s="16" t="str">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10">
         <f>'Evaluator 3'!I10</f>
-        <v/>
-      </c>
-      <c r="F8" s="16" t="str">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
         <f>'Evaluator 3'!I11</f>
-        <v/>
-      </c>
-      <c r="G8" s="16" t="str">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10">
         <f>'Evaluator 3'!I12</f>
-        <v/>
-      </c>
-      <c r="H8" s="12">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="H8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="17" t="str">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A9" s="11">
         <f>'Evaluator 4'!B5</f>
-        <v/>
-      </c>
-      <c r="B9" s="18" t="str">
+        <v>0</v>
+      </c>
+      <c r="B9" s="12">
         <f>'Evaluator 4'!I7</f>
-        <v/>
-      </c>
-      <c r="C9" s="18" t="str">
+        <v>0</v>
+      </c>
+      <c r="C9" s="12">
         <f>'Evaluator 4'!I8</f>
-        <v/>
-      </c>
-      <c r="D9" s="18" t="str">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12">
         <f>'Evaluator 4'!I9</f>
-        <v/>
-      </c>
-      <c r="E9" s="18" t="str">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
         <f>'Evaluator 4'!I10</f>
-        <v/>
-      </c>
-      <c r="F9" s="18" t="str">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12">
         <f>'Evaluator 4'!I11</f>
-        <v/>
-      </c>
-      <c r="G9" s="18" t="str">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
         <f>'Evaluator 4'!I12</f>
-        <v/>
-      </c>
-      <c r="H9" s="12">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="H9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="19" t="str">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="13">
         <f>'Evaluator 5'!B5</f>
-        <v/>
-      </c>
-      <c r="B10" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="B10" s="14">
         <f>'Evaluator 5'!I7</f>
-        <v/>
-      </c>
-      <c r="C10" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="C10" s="14">
         <f>'Evaluator 5'!I8</f>
-        <v/>
-      </c>
-      <c r="D10" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="D10" s="14">
         <f>'Evaluator 5'!I9</f>
-        <v/>
-      </c>
-      <c r="E10" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14">
         <f>'Evaluator 5'!I10</f>
-        <v/>
-      </c>
-      <c r="F10" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14">
         <f>'Evaluator 5'!I11</f>
-        <v/>
-      </c>
-      <c r="G10" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14">
         <f>'Evaluator 5'!I12</f>
-        <v/>
-      </c>
-      <c r="H10" s="12">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="H10" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22" t="s">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="22" t="str">
-        <f>averageif(H6:H10,"&lt;&gt;0")</f>
+      <c r="H11" s="16" t="e">
+        <f>AVERAGEIF(H6:H10,"&lt;&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -5136,302 +5272,313 @@
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:H4"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.13"/>
-    <col customWidth="1" min="2" max="2" width="18.13"/>
-    <col customWidth="1" min="3" max="3" width="17.5"/>
-    <col customWidth="1" min="4" max="4" width="16.63"/>
-    <col customWidth="1" min="5" max="5" width="17.13"/>
-    <col customWidth="1" min="6" max="6" width="15.5"/>
-    <col customWidth="1" min="7" max="7" width="13.63"/>
-    <col customWidth="1" min="8" max="8" width="14.0"/>
+    <col min="1" max="1" width="33.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="58"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="23"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58"/>
     </row>
-    <row r="4" ht="21.0" customHeight="1">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:9" ht="21" customHeight="1">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="G4" s="33"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
     </row>
-    <row r="5" ht="22.5" customHeight="1">
-      <c r="A5" s="34" t="s">
+    <row r="5" spans="1:9" ht="22.5" customHeight="1">
+      <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42" t="s">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A6" s="23"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" ht="90.75" customHeight="1">
-      <c r="A7" s="43" t="s">
+    <row r="7" spans="1:9" ht="90.75" customHeight="1">
+      <c r="A7" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="68"/>
     </row>
-    <row r="8" ht="89.25" customHeight="1">
-      <c r="A8" s="46" t="s">
+    <row r="8" spans="1:9" ht="89.25" customHeight="1">
+      <c r="A8" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="73"/>
     </row>
-    <row r="9" ht="45.75" customHeight="1">
-      <c r="A9" s="49" t="s">
+    <row r="9" spans="1:9" ht="45.75" customHeight="1">
+      <c r="A9" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="69"/>
     </row>
-    <row r="10" ht="35.25" customHeight="1">
-      <c r="A10" s="52" t="s">
+    <row r="10" spans="1:9" ht="35.25" customHeight="1">
+      <c r="A10" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="70"/>
     </row>
-    <row r="11" ht="33.75" customHeight="1">
-      <c r="A11" s="55" t="s">
+    <row r="11" spans="1:9" ht="33.75" customHeight="1">
+      <c r="A11" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="56" t="s">
+      <c r="E11" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="G11" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="56" t="s">
+      <c r="H11" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="57"/>
+      <c r="I11" s="71"/>
     </row>
-    <row r="12" ht="48.75" customHeight="1">
-      <c r="A12" s="58" t="s">
+    <row r="12" spans="1:9" ht="48.75" customHeight="1">
+      <c r="A12" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="59" t="s">
+      <c r="G12" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="60"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="72"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="I13" s="61">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+      <c r="I13" s="45">
         <f>SUM(I7:I12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="62"/>
-      <c r="B16" s="62"/>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="21"/>
-      <c r="B17" s="63"/>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A17" s="15"/>
+      <c r="B17" s="47"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="21"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="64"/>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A18" s="15"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="48"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="21"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="65"/>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A19" s="15"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="49"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="21"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="65"/>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A20" s="15"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="49"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="21"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="65"/>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A21" s="15"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="49"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="21"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="65"/>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A22" s="15"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="49"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="21"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="65"/>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A23" s="15"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="49"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="B24" s="66"/>
-      <c r="C24" s="65"/>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B24" s="50"/>
+      <c r="C24" s="49"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="B25" s="66"/>
-      <c r="C25" s="65"/>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B25" s="50"/>
+      <c r="C25" s="49"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -6408,342 +6555,351 @@
     <mergeCell ref="C3:G5"/>
     <mergeCell ref="H3:I5"/>
   </mergeCells>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="I8">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" sqref="I8" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"0.0,1.0,2.0,3.0,4.0,5.0,6.0,7.0,8.0,9.0,10.0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I9">
+    <dataValidation type="list" allowBlank="1" sqref="I9" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"6.0,7.0,8.0,9.0,10.0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I11">
+    <dataValidation type="list" allowBlank="1" sqref="I11" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"0.0,5.0,6.0,7.0,8.0,9.0,10.0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I7">
+    <dataValidation type="list" allowBlank="1" sqref="I7" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>"0.0,1.0,2.0,3.0,4.0,5.0,6.0,7.0,8.0,9.0,10.0,11.0,12.0,13.0,14.0,15.0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I12">
+    <dataValidation type="list" allowBlank="1" sqref="I12" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>"0.0,2.0,4.0,6.0,8.0,10.0,12.0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I10">
+    <dataValidation type="list" allowBlank="1" sqref="I10" xr:uid="{00000000-0002-0000-0100-000005000000}">
       <formula1>"5.0,7.0,8.0,9.0,10.0"</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.63"/>
-    <col customWidth="1" min="2" max="2" width="17.13"/>
-    <col customWidth="1" min="3" max="3" width="17.5"/>
-    <col customWidth="1" min="4" max="4" width="16.63"/>
-    <col customWidth="1" min="5" max="5" width="17.13"/>
-    <col customWidth="1" min="6" max="6" width="15.5"/>
-    <col customWidth="1" min="7" max="7" width="13.63"/>
-    <col customWidth="1" min="8" max="8" width="14.0"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="58"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="23"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58"/>
     </row>
-    <row r="4" ht="21.0" customHeight="1">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:9" ht="21" customHeight="1">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="G4" s="33"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
     </row>
-    <row r="5" ht="23.25" customHeight="1">
-      <c r="A5" s="34" t="s">
+    <row r="5" spans="1:9" ht="23.25" customHeight="1">
+      <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42" t="s">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A6" s="23"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" ht="85.5" customHeight="1">
-      <c r="A7" s="43" t="s">
+    <row r="7" spans="1:9" ht="85.5" customHeight="1">
+      <c r="A7" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
     </row>
-    <row r="8" ht="91.5" customHeight="1">
-      <c r="A8" s="46" t="s">
+    <row r="8" spans="1:9" ht="91.5" customHeight="1">
+      <c r="A8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
     </row>
-    <row r="9" ht="42.75" customHeight="1">
-      <c r="A9" s="49" t="s">
+    <row r="9" spans="1:9" ht="42.75" customHeight="1">
+      <c r="A9" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="35"/>
     </row>
-    <row r="10" ht="38.25" customHeight="1">
-      <c r="A10" s="52" t="s">
+    <row r="10" spans="1:9" ht="38.25" customHeight="1">
+      <c r="A10" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="38"/>
     </row>
-    <row r="11" ht="31.5" customHeight="1">
-      <c r="A11" s="55" t="s">
+    <row r="11" spans="1:9" ht="31.5" customHeight="1">
+      <c r="A11" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="56" t="s">
+      <c r="E11" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="G11" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="56" t="s">
+      <c r="H11" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="I11" s="57"/>
+      <c r="I11" s="41"/>
     </row>
-    <row r="12" ht="52.5" customHeight="1">
-      <c r="A12" s="58" t="s">
+    <row r="12" spans="1:9" ht="52.5" customHeight="1">
+      <c r="A12" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="59" t="s">
+      <c r="G12" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="60"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="44"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="I13" s="61">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+      <c r="I13" s="45">
         <f>SUM(I7:I12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" hidden="1" customHeight="1">
-      <c r="B16" s="62" t="s">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:9" ht="15.75" hidden="1" customHeight="1">
+      <c r="B16" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="62" t="s">
+      <c r="C16" s="46" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" ht="15.75" hidden="1" customHeight="1">
-      <c r="B17" s="21" t="s">
+    <row r="17" spans="2:3" ht="15.75" hidden="1" customHeight="1">
+      <c r="B17" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="63">
-        <v>10.0</v>
+      <c r="C17" s="47">
+        <v>10</v>
       </c>
     </row>
-    <row r="18" ht="15.75" hidden="1" customHeight="1">
-      <c r="B18" s="21" t="s">
+    <row r="18" spans="2:3" ht="15.75" hidden="1" customHeight="1">
+      <c r="B18" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="63">
-        <v>9.0</v>
+      <c r="C18" s="47">
+        <v>9</v>
       </c>
     </row>
-    <row r="19" ht="15.75" hidden="1" customHeight="1">
-      <c r="B19" s="21" t="s">
+    <row r="19" spans="2:3" ht="15.75" hidden="1" customHeight="1">
+      <c r="B19" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="63">
-        <v>8.0</v>
+      <c r="C19" s="47">
+        <v>8</v>
       </c>
     </row>
-    <row r="20" ht="15.75" hidden="1" customHeight="1">
-      <c r="B20" s="21" t="s">
+    <row r="20" spans="2:3" ht="15.75" hidden="1" customHeight="1">
+      <c r="B20" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="63">
-        <v>7.0</v>
+      <c r="C20" s="47">
+        <v>7</v>
       </c>
     </row>
-    <row r="21" ht="15.75" hidden="1" customHeight="1">
-      <c r="B21" s="21" t="s">
+    <row r="21" spans="2:3" ht="15.75" hidden="1" customHeight="1">
+      <c r="B21" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="63">
-        <v>6.0</v>
+      <c r="C21" s="47">
+        <v>6</v>
       </c>
     </row>
-    <row r="22" ht="15.75" hidden="1" customHeight="1">
-      <c r="B22" s="21" t="s">
+    <row r="22" spans="2:3" ht="15.75" hidden="1" customHeight="1">
+      <c r="B22" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="63">
-        <v>5.0</v>
+      <c r="C22" s="47">
+        <v>5</v>
       </c>
     </row>
-    <row r="23" ht="15.75" hidden="1" customHeight="1">
-      <c r="B23" s="21" t="s">
+    <row r="23" spans="2:3" ht="15.75" hidden="1" customHeight="1">
+      <c r="B23" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="63">
-        <v>0.0</v>
+      <c r="C23" s="47">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="24" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="25" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="26" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="27" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="28" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="29" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="30" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="31" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="32" spans="2:3" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -7720,342 +7876,351 @@
     <mergeCell ref="C3:G5"/>
     <mergeCell ref="H3:I5"/>
   </mergeCells>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="I8">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" sqref="I8" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"0.0,1.0,2.0,3.0,4.0,5.0,6.0,7.0,8.0,9.0,10.0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I9">
+    <dataValidation type="list" allowBlank="1" sqref="I9" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"6.0,7.0,8.0,9.0,10.0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I11">
+    <dataValidation type="list" allowBlank="1" sqref="I11" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"0.0,5.0,6.0,7.0,8.0,9.0,10.0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I7">
+    <dataValidation type="list" allowBlank="1" sqref="I7" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>"0.0,1.0,2.0,3.0,4.0,5.0,6.0,7.0,8.0,9.0,10.0,11.0,12.0,13.0,14.0,15.0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I12">
+    <dataValidation type="list" allowBlank="1" sqref="I12" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>"0.0,2.0,4.0,6.0,8.0,10.0,12.0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I10">
+    <dataValidation type="list" allowBlank="1" sqref="I10" xr:uid="{00000000-0002-0000-0200-000005000000}">
       <formula1>"5.0,7.0,8.0,9.0,10.0"</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.63"/>
-    <col customWidth="1" min="2" max="2" width="17.13"/>
-    <col customWidth="1" min="3" max="3" width="17.5"/>
-    <col customWidth="1" min="4" max="4" width="16.63"/>
-    <col customWidth="1" min="5" max="5" width="17.13"/>
-    <col customWidth="1" min="6" max="6" width="15.5"/>
-    <col customWidth="1" min="7" max="7" width="13.63"/>
-    <col customWidth="1" min="8" max="8" width="14.0"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="58"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="23"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58"/>
     </row>
-    <row r="4" ht="21.75" customHeight="1">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:9" ht="21.75" customHeight="1">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="G4" s="33"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
     </row>
-    <row r="5" ht="24.0" customHeight="1">
-      <c r="A5" s="34" t="s">
+    <row r="5" spans="1:9" ht="24" customHeight="1">
+      <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42" t="s">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A6" s="23"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" ht="86.25" customHeight="1">
-      <c r="A7" s="43" t="s">
+    <row r="7" spans="1:9" ht="86.25" customHeight="1">
+      <c r="A7" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
     </row>
-    <row r="8" ht="86.25" customHeight="1">
-      <c r="A8" s="46" t="s">
+    <row r="8" spans="1:9" ht="86.25" customHeight="1">
+      <c r="A8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
     </row>
-    <row r="9" ht="39.0" customHeight="1">
-      <c r="A9" s="49" t="s">
+    <row r="9" spans="1:9" ht="39" customHeight="1">
+      <c r="A9" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="35"/>
     </row>
-    <row r="10" ht="36.0" customHeight="1">
-      <c r="A10" s="52" t="s">
+    <row r="10" spans="1:9" ht="36" customHeight="1">
+      <c r="A10" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="38"/>
     </row>
-    <row r="11" ht="27.0" customHeight="1">
-      <c r="A11" s="55" t="s">
+    <row r="11" spans="1:9" ht="27" customHeight="1">
+      <c r="A11" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="E11" s="56" t="s">
+      <c r="E11" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="G11" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="H11" s="56" t="s">
+      <c r="H11" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="I11" s="57"/>
+      <c r="I11" s="41"/>
     </row>
-    <row r="12" ht="49.5" customHeight="1">
-      <c r="A12" s="58" t="s">
+    <row r="12" spans="1:9" ht="49.5" customHeight="1">
+      <c r="A12" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="G12" s="59" t="s">
+      <c r="G12" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="60"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="44"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="I13" s="61">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+      <c r="I13" s="45">
         <f>SUM(I7:I12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" hidden="1" customHeight="1">
-      <c r="A16" s="62" t="s">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:9" ht="15.75" hidden="1" customHeight="1">
+      <c r="A16" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="46" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A17" s="21" t="s">
+    <row r="17" spans="1:2" ht="15.75" hidden="1" customHeight="1">
+      <c r="A17" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="63">
-        <v>10.0</v>
+      <c r="B17" s="47">
+        <v>10</v>
       </c>
     </row>
-    <row r="18" ht="15.75" hidden="1" customHeight="1">
-      <c r="A18" s="21" t="s">
+    <row r="18" spans="1:2" ht="15.75" hidden="1" customHeight="1">
+      <c r="A18" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="63">
-        <v>9.0</v>
+      <c r="B18" s="47">
+        <v>9</v>
       </c>
     </row>
-    <row r="19" ht="15.75" hidden="1" customHeight="1">
-      <c r="A19" s="21" t="s">
+    <row r="19" spans="1:2" ht="15.75" hidden="1" customHeight="1">
+      <c r="A19" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="63">
-        <v>8.0</v>
+      <c r="B19" s="47">
+        <v>8</v>
       </c>
     </row>
-    <row r="20" ht="15.75" hidden="1" customHeight="1">
-      <c r="A20" s="21" t="s">
+    <row r="20" spans="1:2" ht="15.75" hidden="1" customHeight="1">
+      <c r="A20" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="63">
-        <v>7.0</v>
+      <c r="B20" s="47">
+        <v>7</v>
       </c>
     </row>
-    <row r="21" ht="15.75" hidden="1" customHeight="1">
-      <c r="A21" s="21" t="s">
+    <row r="21" spans="1:2" ht="15.75" hidden="1" customHeight="1">
+      <c r="A21" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="63">
-        <v>6.0</v>
+      <c r="B21" s="47">
+        <v>6</v>
       </c>
     </row>
-    <row r="22" ht="15.75" hidden="1" customHeight="1">
-      <c r="A22" s="21" t="s">
+    <row r="22" spans="1:2" ht="15.75" hidden="1" customHeight="1">
+      <c r="A22" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="63">
-        <v>5.0</v>
+      <c r="B22" s="47">
+        <v>5</v>
       </c>
     </row>
-    <row r="23" ht="15.75" hidden="1" customHeight="1">
-      <c r="A23" s="21" t="s">
+    <row r="23" spans="1:2" ht="15.75" hidden="1" customHeight="1">
+      <c r="A23" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="63">
-        <v>0.0</v>
+      <c r="B23" s="47">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -9032,342 +9197,351 @@
     <mergeCell ref="C3:G5"/>
     <mergeCell ref="H3:I5"/>
   </mergeCells>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="I8">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" sqref="I8" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"0.0,1.0,2.0,3.0,4.0,5.0,6.0,7.0,8.0,9.0,10.0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I9">
+    <dataValidation type="list" allowBlank="1" sqref="I9" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"6.0,7.0,8.0,9.0,10.0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I11">
+    <dataValidation type="list" allowBlank="1" sqref="I11" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"0.0,5.0,6.0,7.0,8.0,9.0,10.0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I7">
+    <dataValidation type="list" allowBlank="1" sqref="I7" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>"0.0,1.0,2.0,3.0,4.0,5.0,6.0,7.0,8.0,9.0,10.0,11.0,12.0,13.0,14.0,15.0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I12">
+    <dataValidation type="list" allowBlank="1" sqref="I12" xr:uid="{00000000-0002-0000-0300-000004000000}">
       <formula1>"0.0,2.0,4.0,6.0,8.0,10.0,12.0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I10">
+    <dataValidation type="list" allowBlank="1" sqref="I10" xr:uid="{00000000-0002-0000-0300-000005000000}">
       <formula1>"5.0,7.0,8.0,9.0,10.0"</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.63"/>
-    <col customWidth="1" min="2" max="2" width="17.13"/>
-    <col customWidth="1" min="3" max="3" width="17.5"/>
-    <col customWidth="1" min="4" max="4" width="16.63"/>
-    <col customWidth="1" min="5" max="5" width="17.13"/>
-    <col customWidth="1" min="6" max="6" width="15.5"/>
-    <col customWidth="1" min="7" max="7" width="13.63"/>
-    <col customWidth="1" min="8" max="8" width="14.0"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="58"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="23"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58"/>
     </row>
-    <row r="4" ht="21.75" customHeight="1">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:9" ht="21.75" customHeight="1">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="G4" s="33"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
     </row>
-    <row r="5" ht="22.5" customHeight="1">
-      <c r="A5" s="34" t="s">
+    <row r="5" spans="1:9" ht="22.5" customHeight="1">
+      <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42" t="s">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A6" s="23"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" ht="84.75" customHeight="1">
-      <c r="A7" s="43" t="s">
+    <row r="7" spans="1:9" ht="84.75" customHeight="1">
+      <c r="A7" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
     </row>
-    <row r="8" ht="86.25" customHeight="1">
-      <c r="A8" s="46" t="s">
+    <row r="8" spans="1:9" ht="86.25" customHeight="1">
+      <c r="A8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
     </row>
-    <row r="9" ht="38.25" customHeight="1">
-      <c r="A9" s="49" t="s">
+    <row r="9" spans="1:9" ht="38.25" customHeight="1">
+      <c r="A9" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="35"/>
     </row>
-    <row r="10" ht="39.0" customHeight="1">
-      <c r="A10" s="52" t="s">
+    <row r="10" spans="1:9" ht="39" customHeight="1">
+      <c r="A10" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="38"/>
     </row>
-    <row r="11" ht="28.5" customHeight="1">
-      <c r="A11" s="55" t="s">
+    <row r="11" spans="1:9" ht="28.5" customHeight="1">
+      <c r="A11" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="E11" s="56" t="s">
+      <c r="E11" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="G11" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="H11" s="56" t="s">
+      <c r="H11" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="I11" s="57"/>
+      <c r="I11" s="41"/>
     </row>
-    <row r="12" ht="49.5" customHeight="1">
-      <c r="A12" s="58" t="s">
+    <row r="12" spans="1:9" ht="49.5" customHeight="1">
+      <c r="A12" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="G12" s="59" t="s">
+      <c r="G12" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="60"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="44"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="I13" s="61">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+      <c r="I13" s="45">
         <f>SUM(I7:I12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" hidden="1" customHeight="1">
-      <c r="A16" s="62" t="s">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:9" ht="15.75" hidden="1" customHeight="1">
+      <c r="A16" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="46" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A17" s="21" t="s">
+    <row r="17" spans="1:2" ht="15.75" hidden="1" customHeight="1">
+      <c r="A17" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="63">
-        <v>10.0</v>
+      <c r="B17" s="47">
+        <v>10</v>
       </c>
     </row>
-    <row r="18" ht="15.75" hidden="1" customHeight="1">
-      <c r="A18" s="21" t="s">
+    <row r="18" spans="1:2" ht="15.75" hidden="1" customHeight="1">
+      <c r="A18" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="63">
-        <v>9.0</v>
+      <c r="B18" s="47">
+        <v>9</v>
       </c>
     </row>
-    <row r="19" ht="15.75" hidden="1" customHeight="1">
-      <c r="A19" s="21" t="s">
+    <row r="19" spans="1:2" ht="15.75" hidden="1" customHeight="1">
+      <c r="A19" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="63">
-        <v>8.0</v>
+      <c r="B19" s="47">
+        <v>8</v>
       </c>
     </row>
-    <row r="20" ht="15.75" hidden="1" customHeight="1">
-      <c r="A20" s="21" t="s">
+    <row r="20" spans="1:2" ht="15.75" hidden="1" customHeight="1">
+      <c r="A20" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="63">
-        <v>7.0</v>
+      <c r="B20" s="47">
+        <v>7</v>
       </c>
     </row>
-    <row r="21" ht="15.75" hidden="1" customHeight="1">
-      <c r="A21" s="21" t="s">
+    <row r="21" spans="1:2" ht="15.75" hidden="1" customHeight="1">
+      <c r="A21" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="63">
-        <v>6.0</v>
+      <c r="B21" s="47">
+        <v>6</v>
       </c>
     </row>
-    <row r="22" ht="15.75" hidden="1" customHeight="1">
-      <c r="A22" s="21" t="s">
+    <row r="22" spans="1:2" ht="15.75" hidden="1" customHeight="1">
+      <c r="A22" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="63">
-        <v>5.0</v>
+      <c r="B22" s="47">
+        <v>5</v>
       </c>
     </row>
-    <row r="23" ht="15.75" hidden="1" customHeight="1">
-      <c r="A23" s="21" t="s">
+    <row r="23" spans="1:2" ht="15.75" hidden="1" customHeight="1">
+      <c r="A23" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="63">
-        <v>0.0</v>
+      <c r="B23" s="47">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -10344,342 +10518,351 @@
     <mergeCell ref="C3:G5"/>
     <mergeCell ref="H3:I5"/>
   </mergeCells>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="I8">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" sqref="I8" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"0.0,1.0,2.0,3.0,4.0,5.0,6.0,7.0,8.0,9.0,10.0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I9">
+    <dataValidation type="list" allowBlank="1" sqref="I9" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"6.0,7.0,8.0,9.0,10.0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I11">
+    <dataValidation type="list" allowBlank="1" sqref="I11" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>"0.0,5.0,6.0,7.0,8.0,9.0,10.0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I7">
+    <dataValidation type="list" allowBlank="1" sqref="I7" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>"0.0,1.0,2.0,3.0,4.0,5.0,6.0,7.0,8.0,9.0,10.0,11.0,12.0,13.0,14.0,15.0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I12">
+    <dataValidation type="list" allowBlank="1" sqref="I12" xr:uid="{00000000-0002-0000-0400-000004000000}">
       <formula1>"0.0,2.0,4.0,6.0,8.0,10.0,12.0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I10">
+    <dataValidation type="list" allowBlank="1" sqref="I10" xr:uid="{00000000-0002-0000-0400-000005000000}">
       <formula1>"5.0,7.0,8.0,9.0,10.0"</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.63"/>
-    <col customWidth="1" min="2" max="2" width="17.13"/>
-    <col customWidth="1" min="3" max="3" width="17.5"/>
-    <col customWidth="1" min="4" max="4" width="16.63"/>
-    <col customWidth="1" min="5" max="5" width="17.13"/>
-    <col customWidth="1" min="6" max="6" width="15.5"/>
-    <col customWidth="1" min="7" max="7" width="13.63"/>
-    <col customWidth="1" min="8" max="8" width="14.0"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="58"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="23"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58"/>
     </row>
-    <row r="4" ht="21.0" customHeight="1">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:9" ht="21" customHeight="1">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="G4" s="33"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
     </row>
-    <row r="5" ht="22.5" customHeight="1">
-      <c r="A5" s="34" t="s">
+    <row r="5" spans="1:9" ht="22.5" customHeight="1">
+      <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42" t="s">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A6" s="23"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" ht="85.5" customHeight="1">
-      <c r="A7" s="43" t="s">
+    <row r="7" spans="1:9" ht="85.5" customHeight="1">
+      <c r="A7" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
     </row>
-    <row r="8" ht="84.75" customHeight="1">
-      <c r="A8" s="46" t="s">
+    <row r="8" spans="1:9" ht="84.75" customHeight="1">
+      <c r="A8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
     </row>
-    <row r="9" ht="36.0" customHeight="1">
-      <c r="A9" s="49" t="s">
+    <row r="9" spans="1:9" ht="36" customHeight="1">
+      <c r="A9" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="35"/>
     </row>
-    <row r="10" ht="35.25" customHeight="1">
-      <c r="A10" s="52" t="s">
+    <row r="10" spans="1:9" ht="35.25" customHeight="1">
+      <c r="A10" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="38"/>
     </row>
-    <row r="11" ht="26.25" customHeight="1">
-      <c r="A11" s="55" t="s">
+    <row r="11" spans="1:9" ht="26.25" customHeight="1">
+      <c r="A11" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="E11" s="56" t="s">
+      <c r="E11" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="G11" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="H11" s="56" t="s">
+      <c r="H11" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="I11" s="57"/>
+      <c r="I11" s="41"/>
     </row>
-    <row r="12" ht="48.75" customHeight="1">
-      <c r="A12" s="58" t="s">
+    <row r="12" spans="1:9" ht="48.75" customHeight="1">
+      <c r="A12" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="G12" s="59" t="s">
+      <c r="G12" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="60"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="44"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="I13" s="61">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+      <c r="I13" s="45">
         <f>SUM(I7:I12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" hidden="1" customHeight="1">
-      <c r="A16" s="62" t="s">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:9" ht="15.75" hidden="1" customHeight="1">
+      <c r="A16" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="46" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A17" s="21" t="s">
+    <row r="17" spans="1:2" ht="15.75" hidden="1" customHeight="1">
+      <c r="A17" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="63">
-        <v>10.0</v>
+      <c r="B17" s="47">
+        <v>10</v>
       </c>
     </row>
-    <row r="18" ht="15.75" hidden="1" customHeight="1">
-      <c r="A18" s="21" t="s">
+    <row r="18" spans="1:2" ht="15.75" hidden="1" customHeight="1">
+      <c r="A18" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="63">
-        <v>9.0</v>
+      <c r="B18" s="47">
+        <v>9</v>
       </c>
     </row>
-    <row r="19" ht="15.75" hidden="1" customHeight="1">
-      <c r="A19" s="21" t="s">
+    <row r="19" spans="1:2" ht="15.75" hidden="1" customHeight="1">
+      <c r="A19" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="63">
-        <v>8.0</v>
+      <c r="B19" s="47">
+        <v>8</v>
       </c>
     </row>
-    <row r="20" ht="15.75" hidden="1" customHeight="1">
-      <c r="A20" s="21" t="s">
+    <row r="20" spans="1:2" ht="15.75" hidden="1" customHeight="1">
+      <c r="A20" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="63">
-        <v>7.0</v>
+      <c r="B20" s="47">
+        <v>7</v>
       </c>
     </row>
-    <row r="21" ht="15.75" hidden="1" customHeight="1">
-      <c r="A21" s="21" t="s">
+    <row r="21" spans="1:2" ht="15.75" hidden="1" customHeight="1">
+      <c r="A21" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="63">
-        <v>6.0</v>
+      <c r="B21" s="47">
+        <v>6</v>
       </c>
     </row>
-    <row r="22" ht="15.75" hidden="1" customHeight="1">
-      <c r="A22" s="21" t="s">
+    <row r="22" spans="1:2" ht="15.75" hidden="1" customHeight="1">
+      <c r="A22" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="63">
-        <v>5.0</v>
+      <c r="B22" s="47">
+        <v>5</v>
       </c>
     </row>
-    <row r="23" ht="15.75" hidden="1" customHeight="1">
-      <c r="A23" s="21" t="s">
+    <row r="23" spans="1:2" ht="15.75" hidden="1" customHeight="1">
+      <c r="A23" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="63">
-        <v>0.0</v>
+      <c r="B23" s="47">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -11656,29 +11839,27 @@
     <mergeCell ref="C3:G5"/>
     <mergeCell ref="H3:I5"/>
   </mergeCells>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="I8">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" sqref="I8" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"0.0,1.0,2.0,3.0,4.0,5.0,6.0,7.0,8.0,9.0,10.0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I9">
+    <dataValidation type="list" allowBlank="1" sqref="I9" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"6.0,7.0,8.0,9.0,10.0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I11">
+    <dataValidation type="list" allowBlank="1" sqref="I11" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>"0.0,5.0,6.0,7.0,8.0,9.0,10.0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I7">
+    <dataValidation type="list" allowBlank="1" sqref="I7" xr:uid="{00000000-0002-0000-0500-000003000000}">
       <formula1>"0.0,1.0,2.0,3.0,4.0,5.0,6.0,7.0,8.0,9.0,10.0,11.0,12.0,13.0,14.0,15.0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I12">
+    <dataValidation type="list" allowBlank="1" sqref="I12" xr:uid="{00000000-0002-0000-0500-000004000000}">
       <formula1>"0.0,2.0,4.0,6.0,8.0,10.0,12.0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I10">
+    <dataValidation type="list" allowBlank="1" sqref="I10" xr:uid="{00000000-0002-0000-0500-000005000000}">
       <formula1>"5.0,7.0,8.0,9.0,10.0"</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>